--- a/Examples.Library/src/main/resources/xlsx/Template_ShipRegistration.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_ShipRegistration.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitCode\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D6D361-8A8B-4D1E-821A-C117BAAAE1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="新規登録申請書" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="TemplateOptions.EmbedFontForFormFields">FALSE</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t/>
   </si>
@@ -369,23 +368,11 @@
     <t>{{(form={"type": "radiobutton", "groupName": "共同所有者＃1","checkedChoice": "WithCo-owner","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}NoCo-owner</t>
   </si>
   <si>
-    <t>{{(form={"type": "radiobutton", "groupName": "トン数＃0","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}Tons</t>
-  </si>
-  <si>
-    <t>{{(form={"type": "radiobutton", "groupName": "共同所有者＃1","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}NoCo-owner</t>
-  </si>
-  <si>
-    <t>{{(form={"type": "radiobutton", "groupName": "機関種類#1","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}Outboard</t>
-  </si>
-  <si>
     <t>{{(form={"type": "radiobutton", "groupName": "船舶の種類#1", "checkedChoice": "steamboat","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}steamboat</t>
   </si>
   <si>
     <t>測度等を受けよう
 とする期日及び場所</t>
-  </si>
-  <si>
-    <t>{{(form={"type": "radiobutton", "groupName": "船舶の種類#1","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}steamboat</t>
   </si>
   <si>
     <t>{{(form={"type": "textbox", "name": "年", "font":{"name":"Meiryo"}})}}</t>
@@ -507,11 +494,35 @@
   <si>
     <t>{{(form={"type": "textbox", "name": "備考欄", "value":"携帯：○○○－○○○○－○○○○\r\n担当者:", "font":{"name":"Meiryo", "size":7}})}}</t>
   </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "船舶の種類#2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}steamboat</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "船舶の種類#2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}sailboat</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "トン数＃2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}Tons</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "トン数＃2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}LessTons</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "機関種類#2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}Outboard</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "機関種類#2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}Inboard</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "共同所有者＃2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}NoCo-owner</t>
+  </si>
+  <si>
+    <t>{{(form={"type": "radiobutton", "groupName": "共同所有者＃2","border": {"color": "#000000", "style": "inset"},"backgroundcolor": "#ffffff","radiosInUnison": true, "checkStyle": "circle"})}}WithCo-owner</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1220,9 +1231,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1232,74 +1309,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1307,230 +1540,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,33 +1856,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="2.6328125" customWidth="1"/>
     <col min="3" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="2.625" customWidth="1"/>
-    <col min="7" max="7" width="1.25" customWidth="1"/>
-    <col min="8" max="8" width="2.75" customWidth="1"/>
-    <col min="9" max="9" width="1.625" customWidth="1"/>
-    <col min="10" max="10" width="2.75" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="2.75" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="3.75" customWidth="1"/>
-    <col min="15" max="15" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="3.25" customWidth="1"/>
-    <col min="17" max="17" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="2.6328125" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" customWidth="1"/>
+    <col min="9" max="9" width="1.6328125" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" customWidth="1"/>
+    <col min="11" max="11" width="5.6328125" customWidth="1"/>
+    <col min="12" max="12" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="14" max="14" width="3.7265625" customWidth="1"/>
+    <col min="15" max="15" width="5.6328125" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1889,7 +1900,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1898,20 +1909,20 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90" t="s">
+      <c r="J2" s="112"/>
+      <c r="K2" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1929,27 +1940,27 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
@@ -1960,22 +1971,22 @@
       <c r="F5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="G5" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="58" t="s">
         <v>99</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>100</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N5" s="58" t="s">
         <v>101</v>
@@ -1983,63 +1994,63 @@
       <c r="O5" s="45"/>
       <c r="P5" s="59"/>
     </row>
-    <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="93"/>
-    </row>
-    <row r="7" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="94"/>
+    </row>
+    <row r="7" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107" t="s">
+      <c r="B7" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="C8" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="63"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -2051,149 +2062,149 @@
       <c r="O8" s="26"/>
       <c r="P8" s="39"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="108"/>
-      <c r="B9" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="103"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="108"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="103"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="100"/>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="103"/>
+      <c r="B9" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="103"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="103"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="91"/>
       <c r="B12" s="65"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
+      <c r="E12" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="95"/>
+      <c r="J12" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="113"/>
       <c r="L12" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="88"/>
+      <c r="M12" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="110"/>
       <c r="O12" s="52"/>
       <c r="P12" s="41"/>
     </row>
-    <row r="13" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-    </row>
-    <row r="14" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+    </row>
+    <row r="14" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="107" t="s">
+      <c r="B14" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="101" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="54"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
@@ -2205,27 +2216,27 @@
       <c r="O15" s="42"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="100"/>
-      <c r="B16" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="106"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="91"/>
+      <c r="B16" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="69" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2245,7 @@
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G17" s="70" t="s">
         <v>70</v>
@@ -2253,44 +2264,44 @@
       <c r="O17" s="23"/>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+      <c r="B19" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
       <c r="L19" s="23"/>
       <c r="M19" s="70" t="s">
         <v>68</v>
@@ -2299,22 +2310,22 @@
       <c r="O19" s="23"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
+      <c r="B20" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
       <c r="L20" s="23"/>
       <c r="M20" s="70" t="s">
         <v>68</v>
@@ -2323,22 +2334,22 @@
       <c r="O20" s="23"/>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="112" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
+      <c r="B21" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
       <c r="L21" s="23"/>
       <c r="M21" s="70" t="s">
         <v>68</v>
@@ -2347,7 +2358,7 @@
       <c r="O21" s="23"/>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="69" t="s">
         <v>19</v>
       </c>
@@ -2358,11 +2369,11 @@
       <c r="F22" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="G22" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="70" t="s">
         <v>72</v>
       </c>
@@ -2377,29 +2388,29 @@
       <c r="O22" s="23"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="113"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="69" t="s">
         <v>21</v>
       </c>
@@ -2427,8 +2438,8 @@
       <c r="O24" s="23"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="99" t="s">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2451,8 +2462,8 @@
       <c r="O25" s="12"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="100"/>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="91"/>
       <c r="B26" s="46" t="s">
         <v>107</v>
       </c>
@@ -2469,19 +2480,19 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>78</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P26" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="69" t="s">
         <v>23</v>
       </c>
@@ -2492,22 +2503,22 @@
       <c r="F27" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
+      <c r="G27" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="74" t="s">
         <v>99</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L27" s="74" t="s">
         <v>100</v>
       </c>
       <c r="M27" s="54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N27" s="74" t="s">
         <v>101</v>
@@ -2515,29 +2526,29 @@
       <c r="O27" s="23"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="113"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="69" t="s">
         <v>25</v>
       </c>
@@ -2548,80 +2559,80 @@
       <c r="F29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
+      <c r="G29" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
       <c r="N29" s="70" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="23"/>
       <c r="P29" s="34"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="96" t="s">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="111"/>
-    </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="97"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="103"/>
-    </row>
-    <row r="32" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="98"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="106"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="106"/>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="88"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="97"/>
+    </row>
+    <row r="32" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="89"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -2641,6 +2652,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B18:P18"/>
@@ -2657,19 +2681,6 @@
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B28:P28"/>
     <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2678,47 +2689,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="1.5" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="7" max="7" width="1.375" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="1.375" customWidth="1"/>
-    <col min="10" max="12" width="2.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="6.375" customWidth="1"/>
-    <col min="15" max="15" width="2.75" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
-    <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="4" width="5.6328125" customWidth="1"/>
+    <col min="5" max="5" width="1.453125" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="7" max="7" width="1.36328125" customWidth="1"/>
+    <col min="8" max="8" width="4.90625" customWidth="1"/>
+    <col min="9" max="9" width="1.36328125" customWidth="1"/>
+    <col min="10" max="12" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="2.453125" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" customWidth="1"/>
+    <col min="15" max="15" width="2.7265625" customWidth="1"/>
+    <col min="16" max="16" width="1.36328125" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="2.7265625" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="20" max="20" width="2.75" customWidth="1"/>
-    <col min="21" max="21" width="4.25" customWidth="1"/>
-    <col min="22" max="22" width="2.75" customWidth="1"/>
-    <col min="23" max="23" width="1.375" customWidth="1"/>
-    <col min="24" max="24" width="5.625" customWidth="1"/>
-    <col min="25" max="25" width="2.75" customWidth="1"/>
-    <col min="26" max="26" width="0.75" customWidth="1"/>
-    <col min="27" max="27" width="3.625" customWidth="1"/>
-    <col min="28" max="28" width="2.75" customWidth="1"/>
-    <col min="29" max="29" width="2.875" customWidth="1"/>
+    <col min="20" max="20" width="2.7265625" customWidth="1"/>
+    <col min="21" max="21" width="4.26953125" customWidth="1"/>
+    <col min="22" max="22" width="2.7265625" customWidth="1"/>
+    <col min="23" max="23" width="1.36328125" customWidth="1"/>
+    <col min="24" max="24" width="5.6328125" customWidth="1"/>
+    <col min="25" max="25" width="2.7265625" customWidth="1"/>
+    <col min="26" max="26" width="0.7265625" customWidth="1"/>
+    <col min="27" max="27" width="3.6328125" customWidth="1"/>
+    <col min="28" max="28" width="2.7265625" customWidth="1"/>
+    <col min="29" max="29" width="2.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2743,48 +2754,48 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="114" t="s">
+      <c r="Y1" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-    </row>
-    <row r="2" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="115" t="s">
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="188"/>
+    </row>
+    <row r="2" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A2" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-    </row>
-    <row r="3" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+    </row>
+    <row r="3" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -2801,29 +2812,29 @@
         <v>30</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
+      <c r="K3" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -2858,7 +2869,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -2874,11 +2885,11 @@
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="L5" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -2895,7 +2906,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -2912,29 +2923,29 @@
         <v>33</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
+      <c r="K6" s="175" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -2949,29 +2960,29 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
+      <c r="K7" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -2986,31 +2997,31 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
+      <c r="K8" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="175"/>
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175"/>
       <c r="AC8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3043,7 +3054,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -3059,11 +3070,11 @@
       <c r="K10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
+      <c r="L10" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -3080,7 +3091,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -3097,29 +3108,29 @@
         <v>33</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="119" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
+      <c r="K11" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -3134,29 +3145,29 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
+      <c r="K12" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
@@ -3171,31 +3182,31 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
+      <c r="K13" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="175"/>
       <c r="AC13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -3232,7 +3243,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -3267,46 +3278,46 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="116"/>
+      <c r="H16" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="122"/>
       <c r="J16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="116"/>
+      <c r="K16" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="122"/>
       <c r="M16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="121" t="s">
+      <c r="Q16" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="121"/>
-      <c r="S16" s="118"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="177"/>
       <c r="T16" s="8" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="U16" s="9" t="s">
         <v>70</v>
@@ -3315,7 +3326,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9" t="s">
@@ -3324,32 +3335,32 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="10"/>
     </row>
-    <row r="17" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="B17" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="156"/>
+      <c r="B17" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="170"/>
       <c r="D17" s="61"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
+      <c r="F17" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="146" t="s">
+      <c r="Q17" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="146"/>
-      <c r="S17" s="136"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="151"/>
       <c r="T17" s="79" t="s">
         <v>40</v>
       </c>
@@ -3367,111 +3378,111 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
       <c r="D18" s="64"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="U18" s="88"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="U18" s="110"/>
       <c r="V18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="X18" s="88"/>
+      <c r="W18" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="X18" s="110"/>
       <c r="Y18" s="16" t="s">
         <v>68</v>
       </c>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB18" s="88"/>
+      <c r="AA18" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB18" s="110"/>
       <c r="AC18" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="154"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="62"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="92"/>
+        <v>149</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="93"/>
       <c r="I19" s="53" t="s">
         <v>72</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>73</v>
       </c>
       <c r="N19" s="21"/>
-      <c r="O19" s="152" t="s">
+      <c r="O19" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="148"/>
-    </row>
-    <row r="20" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="168"/>
+      <c r="Q19" s="168"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="163"/>
+    </row>
+    <row r="20" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>74</v>
@@ -3482,7 +3493,7 @@
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="S20" s="23" t="s">
         <v>75</v>
@@ -3498,25 +3509,25 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="24"/>
     </row>
-    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="124" t="s">
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -3535,35 +3546,35 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="14"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
       <c r="S22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="T22" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
+      <c r="T22" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
@@ -3572,128 +3583,128 @@
       <c r="AB22" s="26"/>
       <c r="AC22" s="27"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="190"/>
-    </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="137"/>
+    </row>
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="190"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="137"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="106"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="100"/>
       <c r="S25" s="15"/>
       <c r="T25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="U25" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="V25" s="88"/>
+      <c r="U25" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="V25" s="110"/>
       <c r="W25" s="16" t="s">
         <v>67</v>
       </c>
       <c r="X25" s="52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Y25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="Z25" s="28"/>
-      <c r="AA25" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB25" s="88"/>
+      <c r="AA25" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB25" s="110"/>
       <c r="AC25" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="183"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="126"/>
       <c r="I26" s="55"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -3716,20 +3727,20 @@
       <c r="AB26" s="63"/>
       <c r="AC26" s="27"/>
     </row>
-    <row r="27" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="129"/>
       <c r="I27" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="K27" s="57" t="s">
         <v>76</v>
@@ -3738,7 +3749,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="50" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="50" t="s">
@@ -3749,33 +3760,33 @@
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
-      <c r="W27" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="126" t="s">
+      <c r="W27" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB27" s="105"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB27" s="99"/>
       <c r="AC27" s="51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="175"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
       <c r="I28" s="11"/>
       <c r="J28" s="45"/>
       <c r="K28" s="58"/>
@@ -3798,15 +3809,15 @@
       <c r="AB28" s="58"/>
       <c r="AC28" s="47"/>
     </row>
-    <row r="29" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="178"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
       <c r="I29" s="25" t="s">
         <v>0</v>
       </c>
@@ -3826,40 +3837,40 @@
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
-      <c r="T29" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="U29" s="133"/>
+      <c r="T29" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="U29" s="136"/>
       <c r="V29" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="X29" s="133"/>
+      <c r="W29" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="X29" s="136"/>
       <c r="Y29" s="26" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="26"/>
-      <c r="AA29" s="133" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB29" s="133"/>
+      <c r="AA29" s="136" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB29" s="136"/>
       <c r="AC29" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
+      <c r="B30" s="171" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="29" t="s">
         <v>50</v>
       </c>
@@ -3886,62 +3897,62 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="31"/>
     </row>
-    <row r="31" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="162"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
       <c r="I31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J31" s="16"/>
-      <c r="K31" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="88"/>
+      <c r="K31" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="110"/>
       <c r="M31" s="16" t="s">
         <v>4</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O31" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" s="88"/>
+      <c r="P31" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="110"/>
       <c r="R31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S31" s="122" t="s">
-        <v>148</v>
-      </c>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="123"/>
-    </row>
-    <row r="32" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S31" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="179"/>
+    </row>
+    <row r="32" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="136"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
       <c r="G32" s="22"/>
       <c r="H32" s="20" t="s">
         <v>52</v>
@@ -3954,17 +3965,17 @@
       <c r="N32" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
+      <c r="O32" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
       <c r="X32" s="20" t="s">
         <v>27</v>
       </c>
@@ -3974,13 +3985,13 @@
       <c r="AB32" s="23"/>
       <c r="AC32" s="24"/>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="139"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="154"/>
       <c r="G33" s="3" t="s">
         <v>53</v>
       </c>
@@ -4007,40 +4018,40 @@
       <c r="AB33" s="26"/>
       <c r="AC33" s="27"/>
     </row>
-    <row r="34" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
-      <c r="U34" s="144"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
-      <c r="Y34" s="144"/>
-      <c r="Z34" s="144"/>
-      <c r="AA34" s="144"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="145"/>
-    </row>
-    <row r="35" spans="1:29" ht="17.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="159"/>
+      <c r="X34" s="159"/>
+      <c r="Y34" s="159"/>
+      <c r="Z34" s="159"/>
+      <c r="AA34" s="159"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="160"/>
+    </row>
+    <row r="35" spans="1:29" ht="16.8" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A35" s="82" t="s">
         <v>54</v>
       </c>
@@ -4073,7 +4084,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="82" t="s">
         <v>55</v>
       </c>
@@ -4106,7 +4117,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="82" t="s">
         <v>56</v>
       </c>
@@ -4139,7 +4150,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38" s="82" t="s">
         <v>57</v>
       </c>
@@ -4172,7 +4183,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39" s="82" t="s">
         <v>58</v>
       </c>
@@ -4205,7 +4216,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="83" t="s">
         <v>59</v>
       </c>
@@ -4238,7 +4249,7 @@
       <c r="AB40" s="36"/>
       <c r="AC40" s="36"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="85" t="s">
         <v>60</v>
       </c>
@@ -4271,149 +4282,149 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="164"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="166" t="s">
+      <c r="C42" s="139"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="167"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="172" t="s">
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="142"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="143"/>
+      <c r="R42" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="S42" s="172"/>
-      <c r="T42" s="172"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="120"/>
-      <c r="X42" s="127" t="s">
+      <c r="S42" s="147"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="174"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="174"/>
+      <c r="X42" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="Y42" s="128"/>
-      <c r="Z42" s="129"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="120"/>
-    </row>
-    <row r="43" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="184"/>
+      <c r="AA42" s="174"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="174"/>
+    </row>
+    <row r="43" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="167"/>
-      <c r="O43" s="167"/>
-      <c r="P43" s="167"/>
-      <c r="Q43" s="168"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="172"/>
-      <c r="T43" s="172"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="130"/>
-      <c r="Y43" s="131"/>
-      <c r="Z43" s="132"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-    </row>
-    <row r="44" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="138"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="142"/>
+      <c r="P43" s="142"/>
+      <c r="Q43" s="143"/>
+      <c r="R43" s="147"/>
+      <c r="S43" s="147"/>
+      <c r="T43" s="147"/>
+      <c r="U43" s="174"/>
+      <c r="V43" s="174"/>
+      <c r="W43" s="174"/>
+      <c r="X43" s="185"/>
+      <c r="Y43" s="186"/>
+      <c r="Z43" s="187"/>
+      <c r="AA43" s="174"/>
+      <c r="AB43" s="174"/>
+      <c r="AC43" s="174"/>
+    </row>
+    <row r="44" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="164"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="169" t="s">
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="171"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="146"/>
       <c r="K44" s="86" t="s">
         <v>88</v>
       </c>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
-      <c r="N44" s="169" t="s">
+      <c r="N44" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="O44" s="170"/>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="173" t="s">
+      <c r="O44" s="145"/>
+      <c r="P44" s="145"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="S44" s="173"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="120"/>
-      <c r="X44" s="120"/>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="120"/>
-      <c r="AC44" s="120"/>
-    </row>
-    <row r="45" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S44" s="148"/>
+      <c r="T44" s="148"/>
+      <c r="U44" s="174"/>
+      <c r="V44" s="174"/>
+      <c r="W44" s="174"/>
+      <c r="X44" s="174"/>
+      <c r="Y44" s="174"/>
+      <c r="Z44" s="174"/>
+      <c r="AA44" s="174"/>
+      <c r="AB44" s="174"/>
+      <c r="AC44" s="174"/>
+    </row>
+    <row r="45" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="171"/>
-      <c r="N45" s="169"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="170"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="173"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="173"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="120"/>
-      <c r="X45" s="120"/>
-      <c r="Y45" s="120"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
-      <c r="AB45" s="120"/>
-      <c r="AC45" s="120"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B45" s="138"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="145"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="148"/>
+      <c r="S45" s="148"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="174"/>
+      <c r="V45" s="174"/>
+      <c r="W45" s="174"/>
+      <c r="X45" s="174"/>
+      <c r="Y45" s="174"/>
+      <c r="Z45" s="174"/>
+      <c r="AA45" s="174"/>
+      <c r="AB45" s="174"/>
+      <c r="AC45" s="174"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="85" t="s">
         <v>65</v>
@@ -4450,28 +4461,31 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B28:H29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="B26:H27"/>
-    <mergeCell ref="B21:H25"/>
-    <mergeCell ref="I24:R25"/>
-    <mergeCell ref="I22:R23"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="S23:AC24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E42:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R42:T43"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="K3:AB3"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:O18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K6:AB6"/>
+    <mergeCell ref="K7:AB7"/>
+    <mergeCell ref="K8:AB8"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="U44:AC45"/>
+    <mergeCell ref="K11:AB11"/>
+    <mergeCell ref="K13:AB13"/>
+    <mergeCell ref="K12:AB12"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="X42:Z43"/>
+    <mergeCell ref="U42:W43"/>
+    <mergeCell ref="AA42:AC43"/>
+    <mergeCell ref="T29:U29"/>
     <mergeCell ref="B32:F34"/>
     <mergeCell ref="O32:W32"/>
     <mergeCell ref="G34:AC34"/>
@@ -4488,31 +4502,28 @@
     <mergeCell ref="B30:H31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="U44:AC45"/>
-    <mergeCell ref="K11:AB11"/>
-    <mergeCell ref="K13:AB13"/>
-    <mergeCell ref="K12:AB12"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="X42:Z43"/>
-    <mergeCell ref="U42:W43"/>
-    <mergeCell ref="AA42:AC43"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="K3:AB3"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:O18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K6:AB6"/>
-    <mergeCell ref="K7:AB7"/>
-    <mergeCell ref="K8:AB8"/>
-    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E42:Q43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="R42:T43"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="B28:H29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="B26:H27"/>
+    <mergeCell ref="B21:H25"/>
+    <mergeCell ref="I24:R25"/>
+    <mergeCell ref="I22:R23"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="S23:AC24"/>
+    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
